--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H2">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I2">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J2">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N2">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O2">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P2">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q2">
-        <v>0.2967781476848889</v>
+        <v>72.20560309944511</v>
       </c>
       <c r="R2">
-        <v>2.671003329164</v>
+        <v>649.850427895006</v>
       </c>
       <c r="S2">
-        <v>8.149143485106147E-07</v>
+        <v>0.0001427707403493819</v>
       </c>
       <c r="T2">
-        <v>8.149143485106148E-07</v>
+        <v>0.0001427707403493819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H3">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I3">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J3">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.019916</v>
       </c>
       <c r="O3">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P3">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q3">
-        <v>0.01709530577155555</v>
+        <v>0.1294518712008889</v>
       </c>
       <c r="R3">
-        <v>0.153857751944</v>
+        <v>1.165066840808</v>
       </c>
       <c r="S3">
-        <v>4.694149510026841E-08</v>
+        <v>2.559626773771212E-07</v>
       </c>
       <c r="T3">
-        <v>4.694149510026843E-08</v>
+        <v>2.559626773771212E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H4">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I4">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J4">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N4">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O4">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P4">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q4">
-        <v>395.6555662217785</v>
+        <v>5877.084416022519</v>
       </c>
       <c r="R4">
-        <v>3560.900095996007</v>
+        <v>52893.75974420267</v>
       </c>
       <c r="S4">
-        <v>0.001086418931101901</v>
+        <v>0.01162064517369564</v>
       </c>
       <c r="T4">
-        <v>0.001086418931101901</v>
+        <v>0.01162064517369564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H5">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I5">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J5">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N5">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O5">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P5">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q5">
-        <v>0.07700012071888888</v>
+        <v>1.473844263051333</v>
       </c>
       <c r="R5">
-        <v>0.69300108647</v>
+        <v>13.264598367462</v>
       </c>
       <c r="S5">
-        <v>2.114323567970264E-07</v>
+        <v>2.914203712220569E-06</v>
       </c>
       <c r="T5">
-        <v>2.114323567970265E-07</v>
+        <v>2.91420371222057E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H6">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I6">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J6">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N6">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O6">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P6">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q6">
-        <v>67.94879150697911</v>
+        <v>389.66998948813</v>
       </c>
       <c r="R6">
-        <v>611.5391235628119</v>
+        <v>3507.02990539317</v>
       </c>
       <c r="S6">
-        <v>0.0001865785793022283</v>
+        <v>0.000770486922109563</v>
       </c>
       <c r="T6">
-        <v>0.0001865785793022284</v>
+        <v>0.0007704869221095629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H7">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I7">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J7">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N7">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O7">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P7">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q7">
-        <v>578.4900451398404</v>
+        <v>1009.982901119169</v>
       </c>
       <c r="R7">
-        <v>5206.410406258564</v>
+        <v>9089.84611007252</v>
       </c>
       <c r="S7">
-        <v>0.001588458725591718</v>
+        <v>0.001997019626501928</v>
       </c>
       <c r="T7">
-        <v>0.001588458725591718</v>
+        <v>0.001997019626501927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>1135.616028</v>
       </c>
       <c r="I8">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J8">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N8">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O8">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P8">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q8">
-        <v>43.62607769076533</v>
+        <v>1401.69553200407</v>
       </c>
       <c r="R8">
-        <v>392.634699216888</v>
+        <v>12615.25978803663</v>
       </c>
       <c r="S8">
-        <v>0.0001197915579592846</v>
+        <v>0.002771545423878327</v>
       </c>
       <c r="T8">
-        <v>0.0001197915579592846</v>
+        <v>0.002771545423878327</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1135.616028</v>
       </c>
       <c r="I9">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J9">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.019916</v>
       </c>
       <c r="O9">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P9">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q9">
         <v>2.512992090405333</v>
@@ -1013,10 +1013,10 @@
         <v>22.616928813648</v>
       </c>
       <c r="S9">
-        <v>6.900350743948194E-06</v>
+        <v>4.968890582427215E-06</v>
       </c>
       <c r="T9">
-        <v>6.900350743948196E-06</v>
+        <v>4.968890582427216E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1135.616028</v>
       </c>
       <c r="I10">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J10">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N10">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O10">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P10">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q10">
-        <v>58160.95492685069</v>
+        <v>114089.2481128355</v>
       </c>
       <c r="R10">
-        <v>523448.5943416563</v>
+        <v>1026803.23301552</v>
       </c>
       <c r="S10">
-        <v>0.1597024479824363</v>
+        <v>0.2255864603269135</v>
       </c>
       <c r="T10">
-        <v>0.1597024479824363</v>
+        <v>0.2255864603269136</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>1135.616028</v>
       </c>
       <c r="I11">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J11">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N11">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O11">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P11">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q11">
-        <v>11.31893731019333</v>
+        <v>28.611088748108</v>
       </c>
       <c r="R11">
-        <v>101.87043579174</v>
+        <v>257.499798732972</v>
       </c>
       <c r="S11">
-        <v>3.108033558374537E-05</v>
+        <v>5.657215157033484E-05</v>
       </c>
       <c r="T11">
-        <v>3.108033558374538E-05</v>
+        <v>5.657215157033486E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1135.616028</v>
       </c>
       <c r="I12">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J12">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N12">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O12">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P12">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q12">
-        <v>9988.401371197122</v>
+        <v>7564.49167067178</v>
       </c>
       <c r="R12">
-        <v>89895.6123407741</v>
+        <v>68080.42503604601</v>
       </c>
       <c r="S12">
-        <v>0.02742685625463955</v>
+        <v>0.01495712285237933</v>
       </c>
       <c r="T12">
-        <v>0.02742685625463955</v>
+        <v>0.01495712285237934</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1135.616028</v>
       </c>
       <c r="I13">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J13">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N13">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O13">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P13">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q13">
-        <v>85037.43233616129</v>
+        <v>19606.35268082301</v>
       </c>
       <c r="R13">
-        <v>765336.8910254516</v>
+        <v>176457.1741274071</v>
       </c>
       <c r="S13">
-        <v>0.2335017733341249</v>
+        <v>0.03876726137079659</v>
       </c>
       <c r="T13">
-        <v>0.2335017733341249</v>
+        <v>0.03876726137079659</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H14">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I14">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J14">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N14">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O14">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P14">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q14">
-        <v>32.36822366814622</v>
+        <v>1783.16970746626</v>
       </c>
       <c r="R14">
-        <v>291.314013013316</v>
+        <v>16048.52736719634</v>
       </c>
       <c r="S14">
-        <v>8.887894917040857E-05</v>
+        <v>0.003525826921671472</v>
       </c>
       <c r="T14">
-        <v>8.887894917040857E-05</v>
+        <v>0.003525826921671472</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H15">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I15">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J15">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.019916</v>
       </c>
       <c r="O15">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P15">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q15">
-        <v>1.864506147792889</v>
+        <v>3.196907793739112</v>
       </c>
       <c r="R15">
-        <v>16.780555330136</v>
+        <v>28.772170143652</v>
       </c>
       <c r="S15">
-        <v>5.119692351257446E-06</v>
+        <v>6.321183854835076E-06</v>
       </c>
       <c r="T15">
-        <v>5.119692351257447E-06</v>
+        <v>6.321183854835076E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H16">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I16">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J16">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N16">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O16">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P16">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q16">
-        <v>43152.32763232739</v>
+        <v>145138.8597148069</v>
       </c>
       <c r="R16">
-        <v>388370.9486909465</v>
+        <v>1306249.737433262</v>
       </c>
       <c r="S16">
-        <v>0.1184907016690205</v>
+        <v>0.2869802559007682</v>
       </c>
       <c r="T16">
-        <v>0.1184907016690205</v>
+        <v>0.2869802559007683</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H17">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I17">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J17">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N17">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O17">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P17">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q17">
-        <v>8.398048000992224</v>
+        <v>36.39765240623367</v>
       </c>
       <c r="R17">
-        <v>75.58243200893001</v>
+        <v>327.578871656103</v>
       </c>
       <c r="S17">
-        <v>2.305995191652687E-05</v>
+        <v>7.196837306185974E-05</v>
       </c>
       <c r="T17">
-        <v>2.305995191652688E-05</v>
+        <v>7.196837306185975E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H18">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I18">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J18">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N18">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O18">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P18">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q18">
-        <v>7410.861273429671</v>
+        <v>9623.182846446847</v>
       </c>
       <c r="R18">
-        <v>66697.75146086703</v>
+        <v>86608.64561802162</v>
       </c>
       <c r="S18">
-        <v>0.02034926504410886</v>
+        <v>0.01902773303634724</v>
       </c>
       <c r="T18">
-        <v>0.02034926504410886</v>
+        <v>0.01902773303634724</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H19">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I19">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J19">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N19">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O19">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P19">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q19">
-        <v>63093.24091733244</v>
+        <v>24942.25983895193</v>
       </c>
       <c r="R19">
-        <v>567839.1682559919</v>
+        <v>224480.3385505674</v>
       </c>
       <c r="S19">
-        <v>0.1732458663774765</v>
+        <v>0.04931784723533717</v>
       </c>
       <c r="T19">
-        <v>0.1732458663774765</v>
+        <v>0.04931784723533716</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H20">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I20">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J20">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N20">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O20">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P20">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q20">
-        <v>0.7655313545915555</v>
+        <v>40.39876985375433</v>
       </c>
       <c r="R20">
-        <v>6.889782191324</v>
+        <v>363.5889286837889</v>
       </c>
       <c r="S20">
-        <v>2.102049931768579E-06</v>
+        <v>7.987970508716824E-05</v>
       </c>
       <c r="T20">
-        <v>2.102049931768579E-06</v>
+        <v>7.987970508716822E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H21">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I21">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J21">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.019916</v>
       </c>
       <c r="O21">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P21">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q21">
-        <v>0.04409688747822223</v>
+        <v>0.07242784669466666</v>
       </c>
       <c r="R21">
-        <v>0.396871987304</v>
+        <v>0.6518506202519999</v>
       </c>
       <c r="S21">
-        <v>1.210843406463213E-07</v>
+        <v>1.432101783052423E-07</v>
       </c>
       <c r="T21">
-        <v>1.210843406463214E-07</v>
+        <v>1.432101783052423E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H22">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I22">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J22">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N22">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O22">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P22">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q22">
-        <v>1020.583031211059</v>
+        <v>3288.207154879432</v>
       </c>
       <c r="R22">
-        <v>9185.247280899526</v>
+        <v>29593.86439391489</v>
       </c>
       <c r="S22">
-        <v>0.002802388796035657</v>
+        <v>0.006501708313102904</v>
       </c>
       <c r="T22">
-        <v>0.002802388796035658</v>
+        <v>0.006501708313102905</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H23">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I23">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J23">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N23">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O23">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P23">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q23">
-        <v>0.1986197675855556</v>
+        <v>0.8246104544169999</v>
       </c>
       <c r="R23">
-        <v>1.78757790827</v>
+        <v>7.421494089753</v>
       </c>
       <c r="S23">
-        <v>5.453841523236723E-07</v>
+        <v>1.630486278396033E-06</v>
       </c>
       <c r="T23">
-        <v>5.453841523236725E-07</v>
+        <v>1.630486278396033E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H24">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I24">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J24">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N24">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O24">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P24">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q24">
-        <v>175.2721041322325</v>
+        <v>218.018928566595</v>
       </c>
       <c r="R24">
-        <v>1577.448937190092</v>
+        <v>1962.170357099355</v>
       </c>
       <c r="S24">
-        <v>0.0004812744929679182</v>
+        <v>0.0004310846043175142</v>
       </c>
       <c r="T24">
-        <v>0.0004812744929679182</v>
+        <v>0.0004310846043175141</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H25">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I25">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J25">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N25">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O25">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P25">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q25">
-        <v>1492.199716617414</v>
+        <v>565.0817253384866</v>
       </c>
       <c r="R25">
-        <v>13429.79744955672</v>
+        <v>5085.735528046379</v>
       </c>
       <c r="S25">
-        <v>0.004097387120314991</v>
+        <v>0.00111732514959219</v>
       </c>
       <c r="T25">
-        <v>0.004097387120314992</v>
+        <v>0.00111732514959219</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H26">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I26">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J26">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N26">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O26">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P26">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q26">
-        <v>15.22197697227422</v>
+        <v>364.6808706273328</v>
       </c>
       <c r="R26">
-        <v>136.997792750468</v>
+        <v>3282.127835645995</v>
       </c>
       <c r="S26">
-        <v>4.17975768909216E-05</v>
+        <v>0.000721076421438014</v>
       </c>
       <c r="T26">
-        <v>4.179757689092161E-05</v>
+        <v>0.000721076421438014</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H27">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I27">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J27">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.019916</v>
       </c>
       <c r="O27">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P27">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q27">
-        <v>0.876831238480889</v>
+        <v>0.6538082789622222</v>
       </c>
       <c r="R27">
-        <v>7.891481146328</v>
+        <v>5.88427451066</v>
       </c>
       <c r="S27">
-        <v>2.407664994995154E-06</v>
+        <v>1.292762445394061E-06</v>
       </c>
       <c r="T27">
-        <v>2.407664994995155E-06</v>
+        <v>1.292762445394061E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H28">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I28">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J28">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N28">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O28">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P28">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q28">
-        <v>20293.47499120701</v>
+        <v>29682.74163756541</v>
       </c>
       <c r="R28">
-        <v>182641.2749208631</v>
+        <v>267144.6747380887</v>
       </c>
       <c r="S28">
-        <v>0.0557232534823788</v>
+        <v>0.05869111007019904</v>
       </c>
       <c r="T28">
-        <v>0.05572325348237882</v>
+        <v>0.05869111007019905</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H29">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I29">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J29">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N29">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O29">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P29">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q29">
-        <v>3.949394770432223</v>
+        <v>7.443782559068333</v>
       </c>
       <c r="R29">
-        <v>35.54455293389</v>
+        <v>66.99404303161501</v>
       </c>
       <c r="S29">
-        <v>1.084452642980721E-05</v>
+        <v>1.471844706420255E-05</v>
       </c>
       <c r="T29">
-        <v>1.084452642980721E-05</v>
+        <v>1.471844706420255E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H30">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I30">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J30">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N30">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O30">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P30">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q30">
-        <v>3485.145209246694</v>
+        <v>1968.063210110725</v>
       </c>
       <c r="R30">
-        <v>31366.30688322025</v>
+        <v>17712.56889099652</v>
       </c>
       <c r="S30">
-        <v>0.009569757274291289</v>
+        <v>0.003891413262969458</v>
       </c>
       <c r="T30">
-        <v>0.009569757274291291</v>
+        <v>0.003891413262969459</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H31">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I31">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J31">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N31">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O31">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P31">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q31">
-        <v>29671.19450842536</v>
+        <v>5101.009172260322</v>
       </c>
       <c r="R31">
-        <v>267040.7505758283</v>
+        <v>45909.08255034289</v>
       </c>
       <c r="S31">
-        <v>0.08147325647452426</v>
+        <v>0.0100861266271757</v>
       </c>
       <c r="T31">
-        <v>0.08147325647452427</v>
+        <v>0.0100861266271757</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H32">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I32">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J32">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M32">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N32">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O32">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P32">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q32">
-        <v>11.39829835279244</v>
+        <v>1305.865404995948</v>
       </c>
       <c r="R32">
-        <v>102.584685175132</v>
+        <v>11752.78864496353</v>
       </c>
       <c r="S32">
-        <v>3.129825072618855E-05</v>
+        <v>0.002582062370023327</v>
       </c>
       <c r="T32">
-        <v>3.129825072618856E-05</v>
+        <v>0.002582062370023326</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H33">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I33">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J33">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.019916</v>
       </c>
       <c r="O33">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P33">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q33">
-        <v>0.6565759545857777</v>
+        <v>2.341185627664</v>
       </c>
       <c r="R33">
-        <v>5.909183591271999</v>
+        <v>21.070670648976</v>
       </c>
       <c r="S33">
-        <v>1.802872517578717E-06</v>
+        <v>4.629180991627092E-06</v>
       </c>
       <c r="T33">
-        <v>1.802872517578718E-06</v>
+        <v>4.629180991627092E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H34">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I34">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J34">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N34">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O34">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P34">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q34">
-        <v>15195.86338791779</v>
+        <v>106289.2752319328</v>
       </c>
       <c r="R34">
-        <v>136762.7704912601</v>
+        <v>956603.4770873953</v>
       </c>
       <c r="S34">
-        <v>0.04172587237106692</v>
+        <v>0.2101637250389351</v>
       </c>
       <c r="T34">
-        <v>0.04172587237106694</v>
+        <v>0.2101637250389351</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H35">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I35">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J35">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N35">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O35">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P35">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q35">
-        <v>2.957328078234444</v>
+        <v>26.655026103996</v>
       </c>
       <c r="R35">
-        <v>26.61595270411</v>
+        <v>239.895234935964</v>
       </c>
       <c r="S35">
-        <v>8.120439806657907E-06</v>
+        <v>5.270446679405762E-05</v>
       </c>
       <c r="T35">
-        <v>8.120439806657908E-06</v>
+        <v>5.270446679405763E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H36">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I36">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J36">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N36">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O36">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P36">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q36">
-        <v>2609.695506053839</v>
+        <v>7047.327863695861</v>
       </c>
       <c r="R36">
-        <v>23487.25955448455</v>
+        <v>63425.95077326274</v>
       </c>
       <c r="S36">
-        <v>0.007165885796231176</v>
+        <v>0.01393454487457107</v>
       </c>
       <c r="T36">
-        <v>0.007165885796231177</v>
+        <v>0.01393454487457107</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H37">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I37">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J37">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N37">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O37">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P37">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q37">
-        <v>22217.95027720637</v>
+        <v>18265.91945215816</v>
       </c>
       <c r="R37">
-        <v>199961.5524948573</v>
+        <v>164393.2750694234</v>
       </c>
       <c r="S37">
-        <v>0.06100761331867007</v>
+        <v>0.03611684871262903</v>
       </c>
       <c r="T37">
-        <v>0.06100761331867008</v>
+        <v>0.03611684871262902</v>
       </c>
     </row>
   </sheetData>
